--- a/Code/Results/Cases/Case_8_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_5/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027594490069528</v>
+        <v>1.021546308260689</v>
       </c>
       <c r="D2">
-        <v>1.038883346276251</v>
+        <v>1.033658223297993</v>
       </c>
       <c r="E2">
-        <v>1.037236140827723</v>
+        <v>1.032439842256344</v>
       </c>
       <c r="F2">
-        <v>1.041777144378676</v>
+        <v>1.037891265190698</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.053113620916789</v>
+        <v>1.050221149826801</v>
       </c>
       <c r="J2">
-        <v>1.048980055241597</v>
+        <v>1.043101131786866</v>
       </c>
       <c r="K2">
-        <v>1.049826303002859</v>
+        <v>1.044667745311958</v>
       </c>
       <c r="L2">
-        <v>1.048199991678373</v>
+        <v>1.043465006917998</v>
       </c>
       <c r="M2">
-        <v>1.052683594044532</v>
+        <v>1.048846796140426</v>
       </c>
       <c r="N2">
-        <v>1.050469727239782</v>
+        <v>1.033763286790549</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.050267856267816</v>
+        <v>1.047231322208706</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.046301758387502</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.042662968409456</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023699869830604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031995716683774</v>
+        <v>1.025407239184573</v>
       </c>
       <c r="D3">
-        <v>1.0418459459427</v>
+        <v>1.036132970691142</v>
       </c>
       <c r="E3">
-        <v>1.040764862241421</v>
+        <v>1.035520153743843</v>
       </c>
       <c r="F3">
-        <v>1.045144409447818</v>
+        <v>1.040901348742312</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.054336921989171</v>
+        <v>1.051156254539237</v>
       </c>
       <c r="J3">
-        <v>1.051650584799852</v>
+        <v>1.045228450828616</v>
       </c>
       <c r="K3">
-        <v>1.051969997146661</v>
+        <v>1.046323490682336</v>
       </c>
       <c r="L3">
-        <v>1.050901422355522</v>
+        <v>1.045717857576184</v>
       </c>
       <c r="M3">
-        <v>1.055230492502282</v>
+        <v>1.051036327839201</v>
       </c>
       <c r="N3">
-        <v>1.053144049256276</v>
+        <v>1.034955957226353</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.052283526081986</v>
+        <v>1.048964171729723</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.047814870226771</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.043830786130469</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024062119030609</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.034788344992798</v>
+        <v>1.027860761482971</v>
       </c>
       <c r="D4">
-        <v>1.04372933032254</v>
+        <v>1.037709178573776</v>
       </c>
       <c r="E4">
-        <v>1.043009519094511</v>
+        <v>1.037483245556721</v>
       </c>
       <c r="F4">
-        <v>1.047289424988406</v>
+        <v>1.042822254737455</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.055104622515405</v>
+        <v>1.051742341802429</v>
       </c>
       <c r="J4">
-        <v>1.053342165010825</v>
+        <v>1.046577673017944</v>
       </c>
       <c r="K4">
-        <v>1.053327143197547</v>
+        <v>1.047372831104382</v>
       </c>
       <c r="L4">
-        <v>1.052615155123714</v>
+        <v>1.047149387292832</v>
       </c>
       <c r="M4">
-        <v>1.056848739374798</v>
+        <v>1.052429928192044</v>
       </c>
       <c r="N4">
-        <v>1.054838031705175</v>
+        <v>1.035712386071014</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.053564238396803</v>
+        <v>1.050067099399178</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.048775354555315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.044573720420975</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024289200793022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035954701604775</v>
+        <v>1.028885924309521</v>
       </c>
       <c r="D5">
-        <v>1.044519246597156</v>
+        <v>1.03837109252821</v>
       </c>
       <c r="E5">
-        <v>1.043948800324315</v>
+        <v>1.038305229989698</v>
       </c>
       <c r="F5">
-        <v>1.048186945622256</v>
+        <v>1.043626456889021</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.055425344948179</v>
+        <v>1.051987263520514</v>
       </c>
       <c r="J5">
-        <v>1.054049838428483</v>
+        <v>1.047142514406107</v>
       </c>
       <c r="K5">
-        <v>1.053896597218846</v>
+        <v>1.047813901141788</v>
       </c>
       <c r="L5">
-        <v>1.053332184656434</v>
+        <v>1.047748744967807</v>
       </c>
       <c r="M5">
-        <v>1.057525694051485</v>
+        <v>1.0530132542727</v>
       </c>
       <c r="N5">
-        <v>1.055546710100258</v>
+        <v>1.036029057842785</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.054099992961068</v>
+        <v>1.050528756716056</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.049185080806289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.04489341155341</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024384795273795</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036156042500686</v>
+        <v>1.029062446744323</v>
       </c>
       <c r="D6">
-        <v>1.044658677384607</v>
+        <v>1.038488150327377</v>
       </c>
       <c r="E6">
-        <v>1.044111590342113</v>
+        <v>1.038447351433146</v>
       </c>
       <c r="F6">
-        <v>1.048341571124257</v>
+        <v>1.043764647254489</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.055483223071618</v>
+        <v>1.052031783189354</v>
       </c>
       <c r="J6">
-        <v>1.054174272015106</v>
+        <v>1.047241864149105</v>
       </c>
       <c r="K6">
-        <v>1.053998983007884</v>
+        <v>1.047893852268719</v>
       </c>
       <c r="L6">
-        <v>1.053457655902582</v>
+        <v>1.047853488934989</v>
       </c>
       <c r="M6">
-        <v>1.057643292978726</v>
+        <v>1.053114369387548</v>
       </c>
       <c r="N6">
-        <v>1.055671320396847</v>
+        <v>1.036084757045235</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.054193062908014</v>
+        <v>1.050608781452206</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.049266111697704</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.044959483249674</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024403001899492</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.034820843524399</v>
+        <v>1.027917740296719</v>
       </c>
       <c r="D7">
-        <v>1.043759462273745</v>
+        <v>1.037758259670005</v>
       </c>
       <c r="E7">
-        <v>1.04303724874463</v>
+        <v>1.037533035283787</v>
       </c>
       <c r="F7">
-        <v>1.0473132940279</v>
+        <v>1.04286335763035</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.055120688135858</v>
+        <v>1.051772121163158</v>
       </c>
       <c r="J7">
-        <v>1.053368124557449</v>
+        <v>1.046627458655985</v>
       </c>
       <c r="K7">
-        <v>1.053354113907774</v>
+        <v>1.047418515763281</v>
       </c>
       <c r="L7">
-        <v>1.052639746500074</v>
+        <v>1.04719577165913</v>
       </c>
       <c r="M7">
-        <v>1.056869530095149</v>
+        <v>1.052467746529231</v>
       </c>
       <c r="N7">
-        <v>1.054864028117333</v>
+        <v>1.035791775491865</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.053580692566529</v>
+        <v>1.050097029686373</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.0488142949017</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.04462796894687</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024305115786442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,105 +811,123 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029115036105391</v>
+        <v>1.022971912117479</v>
       </c>
       <c r="D8">
-        <v>1.039916296800128</v>
+        <v>1.034595416608604</v>
       </c>
       <c r="E8">
-        <v>1.038456184192717</v>
+        <v>1.033587208462079</v>
       </c>
       <c r="F8">
-        <v>1.042937386145727</v>
+        <v>1.038992411648702</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.053546985816539</v>
+        <v>1.050606605784349</v>
       </c>
       <c r="J8">
-        <v>1.049911111144402</v>
+        <v>1.043934103950636</v>
       </c>
       <c r="K8">
-        <v>1.050581416883198</v>
+        <v>1.045326306975694</v>
       </c>
       <c r="L8">
-        <v>1.049139268916997</v>
+        <v>1.044330656162742</v>
       </c>
       <c r="M8">
-        <v>1.053565534483571</v>
+        <v>1.049668891545325</v>
       </c>
       <c r="N8">
-        <v>1.051402105348715</v>
+        <v>1.034386447387001</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.050965843373902</v>
+        <v>1.047881949313105</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.046858337091724</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.043153626155142</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023858916173525</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>1.018588922503607</v>
+        <v>1.013783612403688</v>
       </c>
       <c r="D9">
-        <v>1.032843881079319</v>
+        <v>1.028722132054447</v>
       </c>
       <c r="E9">
-        <v>1.030049081699586</v>
+        <v>1.026291075364932</v>
       </c>
       <c r="F9">
-        <v>1.034935623272585</v>
+        <v>1.031876415463411</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.050566214200157</v>
+        <v>1.048335523257513</v>
       </c>
       <c r="J9">
-        <v>1.043501912935223</v>
+        <v>1.038858851840731</v>
       </c>
       <c r="K9">
-        <v>1.045425652188815</v>
+        <v>1.041365787661139</v>
       </c>
       <c r="L9">
-        <v>1.042672745487092</v>
+        <v>1.038971528181047</v>
       </c>
       <c r="M9">
-        <v>1.047486228405673</v>
+        <v>1.044472655732659</v>
       </c>
       <c r="N9">
-        <v>1.044983805342934</v>
+        <v>1.031560114195455</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.046154533217909</v>
+        <v>1.043769507143652</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.043209785626152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.040349879553183</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022978416565811</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.011364439549331</v>
+        <v>1.007640138700499</v>
       </c>
       <c r="D10">
-        <v>1.028030154694569</v>
+        <v>1.024856187782111</v>
       </c>
       <c r="E10">
-        <v>1.024359766105221</v>
+        <v>1.021507434306439</v>
       </c>
       <c r="F10">
-        <v>1.029582473451803</v>
+        <v>1.027245054076553</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048510347821961</v>
+        <v>1.046852145943767</v>
       </c>
       <c r="J10">
-        <v>1.039134311166051</v>
+        <v>1.035553875180412</v>
       </c>
       <c r="K10">
-        <v>1.041911110238662</v>
+        <v>1.038790704582191</v>
       </c>
       <c r="L10">
-        <v>1.038302698854283</v>
+        <v>1.03549892807155</v>
       </c>
       <c r="M10">
-        <v>1.043437388329307</v>
+        <v>1.041139218596591</v>
       </c>
       <c r="N10">
-        <v>1.040610001078278</v>
+        <v>1.029937768531713</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.043001323258605</v>
+        <v>1.041182592406319</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.040741495497157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.038547554782226</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022420874215885</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.00913542981384</v>
+        <v>1.005894954975066</v>
       </c>
       <c r="D11">
-        <v>1.026678182380297</v>
+        <v>1.0239120711242</v>
       </c>
       <c r="E11">
-        <v>1.022990306442986</v>
+        <v>1.020549448688448</v>
       </c>
       <c r="F11">
-        <v>1.028662684819811</v>
+        <v>1.026654431975297</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048118429034722</v>
+        <v>1.046714476743629</v>
       </c>
       <c r="J11">
-        <v>1.038133041397076</v>
+        <v>1.035024536714985</v>
       </c>
       <c r="K11">
-        <v>1.041113934294262</v>
+        <v>1.038396703425291</v>
       </c>
       <c r="L11">
-        <v>1.037491303596701</v>
+        <v>1.035093965841799</v>
       </c>
       <c r="M11">
-        <v>1.04306357810911</v>
+        <v>1.041090602133082</v>
       </c>
       <c r="N11">
-        <v>1.039607309391384</v>
+        <v>1.030080965558346</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.0431393701978</v>
+        <v>1.041578770333657</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.040210477074856</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.03830487443314</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022437126426967</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.00867019244334</v>
+        <v>1.005529796363505</v>
       </c>
       <c r="D12">
-        <v>1.026463423306025</v>
+        <v>1.023778027267084</v>
       </c>
       <c r="E12">
-        <v>1.022908540589749</v>
+        <v>1.020549104881091</v>
       </c>
       <c r="F12">
-        <v>1.028851690767447</v>
+        <v>1.026910578883776</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048171120402014</v>
+        <v>1.046813919541716</v>
       </c>
       <c r="J12">
-        <v>1.038112093461441</v>
+        <v>1.035101955182949</v>
       </c>
       <c r="K12">
-        <v>1.04110060081504</v>
+        <v>1.038463429094588</v>
       </c>
       <c r="L12">
-        <v>1.037609627200078</v>
+        <v>1.03529292885511</v>
       </c>
       <c r="M12">
-        <v>1.043446254287725</v>
+        <v>1.041539758186214</v>
       </c>
       <c r="N12">
-        <v>1.039586331707277</v>
+        <v>1.030315442303305</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.043766771402519</v>
+        <v>1.042259262296054</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.040201049997796</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.038352050260662</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022517708792688</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.009552334999424</v>
+        <v>1.006188674258111</v>
       </c>
       <c r="D13">
-        <v>1.027131693742829</v>
+        <v>1.024252711334967</v>
       </c>
       <c r="E13">
-        <v>1.023831959224364</v>
+        <v>1.021275701169606</v>
       </c>
       <c r="F13">
-        <v>1.029933115833833</v>
+        <v>1.027838969571946</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.048587159864284</v>
+        <v>1.047101195201264</v>
       </c>
       <c r="J13">
-        <v>1.038866689588368</v>
+        <v>1.035641736074897</v>
       </c>
       <c r="K13">
-        <v>1.041714567990561</v>
+        <v>1.03888703931391</v>
       </c>
       <c r="L13">
-        <v>1.038473838454914</v>
+        <v>1.035963631527563</v>
       </c>
       <c r="M13">
-        <v>1.044466280664152</v>
+        <v>1.042409260485576</v>
       </c>
       <c r="N13">
-        <v>1.040341999447258</v>
+        <v>1.030575605759821</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.044848604508727</v>
+        <v>1.04322247780601</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.040632664690819</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.038648826160262</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022653619102124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.010777139238189</v>
+        <v>1.007118405440548</v>
       </c>
       <c r="D14">
-        <v>1.027998712456713</v>
+        <v>1.024866894317115</v>
       </c>
       <c r="E14">
-        <v>1.024929150269001</v>
+        <v>1.022117032521024</v>
       </c>
       <c r="F14">
-        <v>1.031089722622354</v>
+        <v>1.028794823898185</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.049041830822536</v>
+        <v>1.047391568319274</v>
       </c>
       <c r="J14">
-        <v>1.039743373007999</v>
+        <v>1.03623325526118</v>
       </c>
       <c r="K14">
-        <v>1.042427552162147</v>
+        <v>1.039350989868659</v>
       </c>
       <c r="L14">
-        <v>1.039412143148061</v>
+        <v>1.036650007376082</v>
       </c>
       <c r="M14">
-        <v>1.045464452668253</v>
+        <v>1.043209686998313</v>
       </c>
       <c r="N14">
-        <v>1.041219927857902</v>
+        <v>1.030773021958636</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.045810176404631</v>
+        <v>1.044027965437284</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.041138174678591</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.038978399986616</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022776752773885</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.011378295669909</v>
+        <v>1.007580929548344</v>
       </c>
       <c r="D15">
-        <v>1.028411802891851</v>
+        <v>1.025161995390787</v>
       </c>
       <c r="E15">
-        <v>1.025428931255502</v>
+        <v>1.022497895377309</v>
       </c>
       <c r="F15">
-        <v>1.031586253791282</v>
+        <v>1.029197566938882</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.04923809466852</v>
+        <v>1.047512314908102</v>
       </c>
       <c r="J15">
-        <v>1.040136993573039</v>
+        <v>1.036492496444598</v>
       </c>
       <c r="K15">
-        <v>1.042748027103466</v>
+        <v>1.039555115731343</v>
       </c>
       <c r="L15">
-        <v>1.039817360588076</v>
+        <v>1.036938007463812</v>
       </c>
       <c r="M15">
-        <v>1.045867348943079</v>
+        <v>1.043520104188046</v>
       </c>
       <c r="N15">
-        <v>1.041614107409294</v>
+        <v>1.03083900250964</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.046166002079875</v>
+        <v>1.044310742220075</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.041370581790414</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.039129127575228</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022823975115205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.014264501534219</v>
+        <v>1.00985918039927</v>
       </c>
       <c r="D16">
-        <v>1.030317936016388</v>
+        <v>1.0265526459297</v>
       </c>
       <c r="E16">
-        <v>1.027660192723125</v>
+        <v>1.024214614281519</v>
       </c>
       <c r="F16">
-        <v>1.033673995496065</v>
+        <v>1.030877065379743</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.050039242899218</v>
+        <v>1.04799093522475</v>
       </c>
       <c r="J16">
-        <v>1.041848366515182</v>
+        <v>1.037611466115791</v>
       </c>
       <c r="K16">
-        <v>1.044125412596646</v>
+        <v>1.040423161211461</v>
       </c>
       <c r="L16">
-        <v>1.041512103572761</v>
+        <v>1.038124574017158</v>
       </c>
       <c r="M16">
-        <v>1.047425782908582</v>
+        <v>1.044675231560373</v>
       </c>
       <c r="N16">
-        <v>1.043327910697311</v>
+        <v>1.031066198523961</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.047359256994918</v>
+        <v>1.045185161756879</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.042347564403689</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.039746306539094</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02298570707566</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.015840072978436</v>
+        <v>1.011150440495462</v>
       </c>
       <c r="D17">
-        <v>1.031329440416985</v>
+        <v>1.027322093037692</v>
       </c>
       <c r="E17">
-        <v>1.028800055561832</v>
+        <v>1.025116832030921</v>
       </c>
       <c r="F17">
-        <v>1.034666751521671</v>
+        <v>1.03168000778775</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.050414774526707</v>
+        <v>1.048219049691964</v>
       </c>
       <c r="J17">
-        <v>1.042702860795297</v>
+        <v>1.038186766055357</v>
       </c>
       <c r="K17">
-        <v>1.044809579239355</v>
+        <v>1.040867445857989</v>
       </c>
       <c r="L17">
-        <v>1.042321280623407</v>
+        <v>1.038698352136689</v>
       </c>
       <c r="M17">
-        <v>1.048093074782628</v>
+        <v>1.045154472552183</v>
       </c>
       <c r="N17">
-        <v>1.044183618457316</v>
+        <v>1.031202974536952</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.047758336713906</v>
+        <v>1.045435372129512</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.042833851833822</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.040063249545393</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023051689196228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.016407052734834</v>
+        <v>1.011648508791612</v>
       </c>
       <c r="D18">
-        <v>1.031636089131748</v>
+        <v>1.027570246800296</v>
       </c>
       <c r="E18">
-        <v>1.029061260090191</v>
+        <v>1.025323369115531</v>
       </c>
       <c r="F18">
-        <v>1.034742145747028</v>
+        <v>1.031709748568522</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.050440225632156</v>
+        <v>1.048213304247038</v>
       </c>
       <c r="J18">
-        <v>1.042864236487182</v>
+        <v>1.038278559183316</v>
       </c>
       <c r="K18">
-        <v>1.044930207103191</v>
+        <v>1.040929466749635</v>
       </c>
       <c r="L18">
-        <v>1.042396529432766</v>
+        <v>1.038718850274735</v>
       </c>
       <c r="M18">
-        <v>1.047986971143014</v>
+        <v>1.045002693174678</v>
       </c>
       <c r="N18">
-        <v>1.044345223321193</v>
+        <v>1.031173076127368</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.047438153083795</v>
+        <v>1.04507859481543</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.042907603995604</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.040094400044988</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023019963682016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.016093794907868</v>
+        <v>1.011429588583278</v>
       </c>
       <c r="D19">
-        <v>1.031342687363983</v>
+        <v>1.027359211383206</v>
       </c>
       <c r="E19">
-        <v>1.028551747826817</v>
+        <v>1.024896790756918</v>
       </c>
       <c r="F19">
-        <v>1.033999029276408</v>
+        <v>1.031029447907221</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.050175424315079</v>
+        <v>1.048004743380154</v>
       </c>
       <c r="J19">
-        <v>1.042431130618336</v>
+        <v>1.037935500828547</v>
       </c>
       <c r="K19">
-        <v>1.044579716986433</v>
+        <v>1.040659724432694</v>
       </c>
       <c r="L19">
-        <v>1.041833189686396</v>
+        <v>1.038236863341832</v>
       </c>
       <c r="M19">
-        <v>1.047194073536025</v>
+        <v>1.044271446766782</v>
       </c>
       <c r="N19">
-        <v>1.043911502392336</v>
+        <v>1.030957839325021</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.046487763977431</v>
+        <v>1.044176204022979</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.042666141204971</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.039910670679032</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022906717435254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.013288634123567</v>
+        <v>1.009179060551874</v>
       </c>
       <c r="D20">
-        <v>1.029332148561689</v>
+        <v>1.025828740116155</v>
       </c>
       <c r="E20">
-        <v>1.025880086356543</v>
+        <v>1.022698642436234</v>
       </c>
       <c r="F20">
-        <v>1.031007488629142</v>
+        <v>1.028409090500838</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.049081022496254</v>
+        <v>1.047215045928718</v>
       </c>
       <c r="J20">
-        <v>1.040316740325107</v>
+        <v>1.036360673514336</v>
       </c>
       <c r="K20">
-        <v>1.042878117432235</v>
+        <v>1.03943213372783</v>
       </c>
       <c r="L20">
-        <v>1.039482634703578</v>
+        <v>1.036353770268593</v>
       </c>
       <c r="M20">
-        <v>1.044526173997182</v>
+        <v>1.041970140517276</v>
       </c>
       <c r="N20">
-        <v>1.041794109422367</v>
+        <v>1.030196719424452</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.043852485914541</v>
+        <v>1.041829662617183</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.04146696222991</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.03904702538149</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02255630640369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.007664274124618</v>
+        <v>1.004863043995558</v>
       </c>
       <c r="D21">
-        <v>1.025567161377492</v>
+        <v>1.023176888910877</v>
       </c>
       <c r="E21">
-        <v>1.021390995612013</v>
+        <v>1.019337723750102</v>
       </c>
       <c r="F21">
-        <v>1.026717881182219</v>
+        <v>1.025011450672818</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.047417379324596</v>
+        <v>1.04626475519524</v>
       </c>
       <c r="J21">
-        <v>1.036845013770261</v>
+        <v>1.034158841090417</v>
       </c>
       <c r="K21">
-        <v>1.040079822551635</v>
+        <v>1.037732081147674</v>
       </c>
       <c r="L21">
-        <v>1.03597813373296</v>
+        <v>1.033961770402503</v>
       </c>
       <c r="M21">
-        <v>1.041210158733912</v>
+        <v>1.039533976861912</v>
       </c>
       <c r="N21">
-        <v>1.0383174526176</v>
+        <v>1.029765288711141</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.04118746657148</v>
+        <v>1.039860881048525</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.039491707193912</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.037848578620972</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022227813535123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.004087402011673</v>
+        <v>1.002111328191703</v>
       </c>
       <c r="D22">
-        <v>1.023177448421445</v>
+        <v>1.021493333562992</v>
       </c>
       <c r="E22">
-        <v>1.018565126066908</v>
+        <v>1.017226154836154</v>
       </c>
       <c r="F22">
-        <v>1.024047413898288</v>
+        <v>1.022905521829399</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046357982256368</v>
+        <v>1.045658647707415</v>
       </c>
       <c r="J22">
-        <v>1.034649237199452</v>
+        <v>1.032759131693419</v>
       </c>
       <c r="K22">
-        <v>1.038303326391578</v>
+        <v>1.036650698715727</v>
       </c>
       <c r="L22">
-        <v>1.033777562632701</v>
+        <v>1.03246391181089</v>
       </c>
       <c r="M22">
-        <v>1.039157079417518</v>
+        <v>1.038036474735761</v>
       </c>
       <c r="N22">
-        <v>1.036118557792202</v>
+        <v>1.029449576216922</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.039562591664845</v>
+        <v>1.038675706490146</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.038222244115813</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.037069258222866</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022020363287552</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.005974267578919</v>
+        <v>1.00351345720218</v>
       </c>
       <c r="D23">
-        <v>1.024429836814503</v>
+        <v>1.022332079155032</v>
       </c>
       <c r="E23">
-        <v>1.020052950347946</v>
+        <v>1.018291546222485</v>
       </c>
       <c r="F23">
-        <v>1.025455634176014</v>
+        <v>1.023980494517506</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.046910795623215</v>
+        <v>1.045942945712381</v>
       </c>
       <c r="J23">
-        <v>1.035801810552098</v>
+        <v>1.033444874711395</v>
       </c>
       <c r="K23">
-        <v>1.039230409184259</v>
+        <v>1.037170867143454</v>
       </c>
       <c r="L23">
-        <v>1.034933490138705</v>
+        <v>1.033204520393278</v>
       </c>
       <c r="M23">
-        <v>1.040237593253591</v>
+        <v>1.038789235573787</v>
       </c>
       <c r="N23">
-        <v>1.037272767931211</v>
+        <v>1.029516152744679</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.0404177465253</v>
+        <v>1.039271467487476</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.038868143169608</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.037426501057525</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022109183264764</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.013262312306155</v>
+        <v>1.009162302213343</v>
       </c>
       <c r="D24">
-        <v>1.029291657315164</v>
+        <v>1.025796311497011</v>
       </c>
       <c r="E24">
-        <v>1.025820040828856</v>
+        <v>1.022647200571712</v>
       </c>
       <c r="F24">
-        <v>1.030917709817621</v>
+        <v>1.028325752907122</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.049040261062179</v>
+        <v>1.047180266402149</v>
       </c>
       <c r="J24">
-        <v>1.040259227974667</v>
+        <v>1.036312162146351</v>
       </c>
       <c r="K24">
-        <v>1.042823190391528</v>
+        <v>1.039385069094246</v>
       </c>
       <c r="L24">
-        <v>1.039408408247198</v>
+        <v>1.036287945480707</v>
       </c>
       <c r="M24">
-        <v>1.044422791608749</v>
+        <v>1.041873049423318</v>
       </c>
       <c r="N24">
-        <v>1.041736515397792</v>
+        <v>1.030161663964249</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.043730043209748</v>
+        <v>1.04171209941654</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.041400925785837</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.038983809768237</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022534956410204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021393944725157</v>
+        <v>1.016186728834745</v>
       </c>
       <c r="D25">
-        <v>1.034737624356499</v>
+        <v>1.030261333185979</v>
       </c>
       <c r="E25">
-        <v>1.032286658072611</v>
+        <v>1.028192164794676</v>
       </c>
       <c r="F25">
-        <v>1.037058086836033</v>
+        <v>1.033730977174291</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.051379529433211</v>
+        <v>1.048934914721023</v>
       </c>
       <c r="J25">
-        <v>1.045222161923032</v>
+        <v>1.040181360162807</v>
       </c>
       <c r="K25">
-        <v>1.046819596418489</v>
+        <v>1.04240736545727</v>
       </c>
       <c r="L25">
-        <v>1.044403618799462</v>
+        <v>1.040368047832962</v>
       </c>
       <c r="M25">
-        <v>1.049107125923868</v>
+        <v>1.045827294178395</v>
       </c>
       <c r="N25">
-        <v>1.046706497281621</v>
+        <v>1.03223626151834</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.047437353848187</v>
+        <v>1.044841607026546</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.044223702751369</v>
+        <v>1.041117544312297</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023211631610689</v>
       </c>
     </row>
   </sheetData>
